--- a/me262.xlsx
+++ b/me262.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>contorno</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>cauda msm</t>
+  </si>
+  <si>
+    <t>detalhe asa esq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor </t>
+  </si>
+  <si>
+    <t>detalhe asa esq msm</t>
+  </si>
+  <si>
+    <t>detalhe asa dir msm</t>
   </si>
 </sst>
 </file>
@@ -383,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="G44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54:K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,6 +1158,9 @@
       <c r="F33">
         <v>0.62702702702702706</v>
       </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
       <c r="M33">
         <v>-0.2810810810810811</v>
       </c>
@@ -1160,6 +1175,12 @@
       <c r="F34">
         <v>0.7567567567567568</v>
       </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>1.8</v>
+      </c>
       <c r="M34">
         <v>-0.30270270270270266</v>
       </c>
@@ -1174,6 +1195,12 @@
       <c r="F35">
         <v>0.8</v>
       </c>
+      <c r="I35">
+        <v>4.8</v>
+      </c>
+      <c r="J35">
+        <v>1.8</v>
+      </c>
       <c r="M35">
         <v>-0.3783783783783784</v>
       </c>
@@ -1187,6 +1214,12 @@
       </c>
       <c r="F36">
         <v>0.81081081081081086</v>
+      </c>
+      <c r="I36">
+        <v>4.8</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
       </c>
       <c r="M36">
         <v>-0.4</v>
@@ -1198,6 +1231,12 @@
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>1</v>
+      </c>
+      <c r="I37">
+        <v>4.2</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
       </c>
       <c r="M37">
         <v>-0.4</v>
@@ -1219,11 +1258,23 @@
         <f t="shared" si="3"/>
         <v>0.38039215686274508</v>
       </c>
+      <c r="I38">
+        <v>4.2</v>
+      </c>
+      <c r="J38">
+        <v>1.8</v>
+      </c>
       <c r="M38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>1.8</v>
+      </c>
       <c r="M39">
         <v>-0.2864864864864865</v>
       </c>
@@ -1232,6 +1283,12 @@
       </c>
     </row>
     <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>1.2</v>
+      </c>
       <c r="M40">
         <v>-0.30270270270270266</v>
       </c>
@@ -1240,6 +1297,12 @@
       </c>
     </row>
     <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>4.2</v>
+      </c>
+      <c r="J41">
+        <v>1.2</v>
+      </c>
       <c r="M41">
         <v>-0.3783783783783784</v>
       </c>
@@ -1248,6 +1311,12 @@
       </c>
     </row>
     <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>4.2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
       <c r="M42">
         <v>-0.4</v>
       </c>
@@ -1256,11 +1325,23 @@
       </c>
     </row>
     <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>4.8</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
       <c r="M43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>4.8</v>
+      </c>
+      <c r="J44">
+        <v>1.2</v>
+      </c>
       <c r="M44">
         <v>0.29019607843137257</v>
       </c>
@@ -1271,7 +1352,23 @@
         <v>0.30588235294117649</v>
       </c>
     </row>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
       <c r="M47" t="s">
         <v>13</v>
       </c>
@@ -1286,7 +1383,7 @@
         <v>-0.97297297297297303</v>
       </c>
     </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M49">
         <f>I29/18.5</f>
         <v>0</v>
@@ -1296,13 +1393,253 @@
         <v>-0.64864864864864868</v>
       </c>
     </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M50" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f>-I34/18.5</f>
+        <v>-0.32432432432432434</v>
+      </c>
+      <c r="K54">
+        <f>J34/18.5</f>
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="M54">
+        <f>I34/18.5</f>
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="N54">
+        <f>J34/18.5</f>
+        <v>9.7297297297297303E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <f t="shared" ref="J55:J65" si="4">-I35/18.5</f>
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ref="K55:K65" si="5">J35/18.5</f>
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ref="M55:N55" si="6">I35/18.5</f>
+        <v>0.25945945945945947</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="6"/>
+        <v>9.7297297297297303E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ref="M56:N56" si="7">I36/18.5</f>
+        <v>0.25945945945945947</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="7"/>
+        <v>0.16216216216216217</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ref="M57:N57" si="8">I37/18.5</f>
+        <v>0.22702702702702704</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="8"/>
+        <v>0.16216216216216217</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="M58">
+        <f t="shared" ref="M58:N58" si="9">I38/18.5</f>
+        <v>0.22702702702702704</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="9"/>
+        <v>9.7297297297297303E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>-0.16216216216216217</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="M59">
+        <f t="shared" ref="M59:N59" si="10">I39/18.5</f>
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="10"/>
+        <v>9.7297297297297303E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>-0.16216216216216217</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="5"/>
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ref="M60:N60" si="11">I40/18.5</f>
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="11"/>
+        <v>6.4864864864864868E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ref="M61:N61" si="12">I41/18.5</f>
+        <v>0.22702702702702704</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="12"/>
+        <v>6.4864864864864868E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" ref="M62:N62" si="13">I42/18.5</f>
+        <v>0.22702702702702704</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ref="M63:N63" si="14">I43/18.5</f>
+        <v>0.25945945945945947</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ref="M64:N64" si="15">I44/18.5</f>
+        <v>0.25945945945945947</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="15"/>
+        <v>6.4864864864864868E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>-0.32432432432432434</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ref="M65:N65" si="16">I45/18.5</f>
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="16"/>
+        <v>6.4864864864864868E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" t="s">
         <v>12</v>
       </c>
     </row>

--- a/me262.xlsx
+++ b/me262.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CEFET\8o Periodo\Computacao Grafica\CG-Tp1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Visual Studio 2013\Projects\CG-Tp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>contorno</t>
   </si>
@@ -66,6 +66,33 @@
   </si>
   <si>
     <t>cauda msm</t>
+  </si>
+  <si>
+    <t>contorno bico aviao</t>
+  </si>
+  <si>
+    <t>contorno corpo bico 1</t>
+  </si>
+  <si>
+    <t>contorno bico 2</t>
+  </si>
+  <si>
+    <t>contorno asa 1</t>
+  </si>
+  <si>
+    <t>contorno asa 2</t>
+  </si>
+  <si>
+    <t>contorno inicio corpo</t>
+  </si>
+  <si>
+    <t>contorno corpo</t>
+  </si>
+  <si>
+    <t>contorno cauda dir</t>
+  </si>
+  <si>
+    <t>contorno cauda central</t>
   </si>
 </sst>
 </file>
@@ -121,9 +148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +188,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -233,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+      <selection activeCell="O48" sqref="O48:P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -434,8 +461,16 @@
         <f>J2/18.5</f>
         <v>0.20540540540540539</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>10000*M2</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>10000*N2</f>
+        <v>2054.0540540540537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.4</v>
       </c>
@@ -464,8 +499,16 @@
         <f t="shared" ref="N3:N6" si="2">J3/18.5</f>
         <v>0.20540540540540539</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="3">10000*M3</f>
+        <v>432.43243243243245</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="4">10000*N3</f>
+        <v>2054.0540540540537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -494,8 +537,16 @@
         <f t="shared" si="2"/>
         <v>0.11891891891891893</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>540.54054054054052</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>1189.1891891891892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -524,8 +575,16 @@
         <f t="shared" si="2"/>
         <v>-9.7297297297297303E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>540.54054054054052</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>-972.97297297297303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -554,8 +613,16 @@
         <f t="shared" si="2"/>
         <v>-0.11891891891891893</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>-1189.1891891891892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.4</v>
       </c>
@@ -579,8 +646,16 @@
       <c r="N7">
         <v>-9.7297297297297303E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>-540.54054054054052</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>-972.97297297297303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.6</v>
       </c>
@@ -610,8 +685,16 @@
       <c r="N8">
         <v>0.11891891891891893</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>-540.54054054054052</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>1189.1891891891892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18.5</v>
       </c>
@@ -632,8 +715,16 @@
       <c r="N9">
         <v>0.20540540540540539</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>-432.43243243243245</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>2054.0540540540537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -654,8 +745,16 @@
       <c r="N10">
         <v>0.20540540540540539</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>2054.0540540540537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8.1999999999999993</v>
       </c>
@@ -677,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -711,7 +810,7 @@
         <v>0.88235294117647056</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -733,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -755,7 +854,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.9</v>
       </c>
@@ -780,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6.2</v>
       </c>
@@ -802,15 +901,23 @@
         <v>7</v>
       </c>
       <c r="M16">
-        <f>I12/18.5</f>
+        <f t="shared" ref="M16:N21" si="5">I12/18.5</f>
         <v>0.2810810810810811</v>
       </c>
       <c r="N16">
-        <f>J12/18.5</f>
+        <f t="shared" si="5"/>
         <v>0.23783783783783785</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <f>10000*M16</f>
+        <v>2810.8108108108108</v>
+      </c>
+      <c r="P16">
+        <f>10000*N16</f>
+        <v>2378.3783783783783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -832,15 +939,23 @@
         <v>3.7</v>
       </c>
       <c r="M17">
-        <f>I13/18.5</f>
+        <f t="shared" si="5"/>
         <v>0.2810810810810811</v>
       </c>
       <c r="N17">
-        <f>J13/18.5</f>
+        <f t="shared" si="5"/>
         <v>0.3783783783783784</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <f t="shared" ref="O17:O21" si="6">10000*M17</f>
+        <v>2810.8108108108108</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17:P21" si="7">10000*N17</f>
+        <v>3783.7837837837842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -859,15 +974,23 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <f>I14/18.5</f>
+        <f t="shared" si="5"/>
         <v>0.30270270270270266</v>
       </c>
       <c r="N18">
-        <f>J14/18.5</f>
+        <f t="shared" si="5"/>
         <v>0.44864864864864867</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>3027.0270270270266</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>4486.4864864864867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -892,15 +1015,23 @@
         <v>78</v>
       </c>
       <c r="M19">
-        <f>I15/18.5</f>
+        <f t="shared" si="5"/>
         <v>0.3783783783783784</v>
       </c>
       <c r="N19">
-        <f>J15/18.5</f>
+        <f t="shared" si="5"/>
         <v>0.44864864864864867</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>3783.7837837837842</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>4486.4864864864867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -914,15 +1045,23 @@
         <v>6</v>
       </c>
       <c r="M20">
-        <f>I16/18.5</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N20">
-        <f>J16/18.5</f>
+        <f t="shared" si="5"/>
         <v>0.3783783783783784</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>4000</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="7"/>
+        <v>3783.7837837837842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>92</v>
       </c>
@@ -945,15 +1084,23 @@
         <v>-1.9</v>
       </c>
       <c r="M21">
-        <f>I17/18.5</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N21">
-        <f>J17/18.5</f>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>4000</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>-0.33513513513513515</v>
       </c>
@@ -969,8 +1116,14 @@
       <c r="M22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>2810.8108108108108</v>
+      </c>
+      <c r="P22">
+        <v>2378.3783783783783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>-0.31891891891891894</v>
       </c>
@@ -984,15 +1137,23 @@
         <v>-3</v>
       </c>
       <c r="M23">
-        <f>I21/18.5</f>
+        <f t="shared" ref="M23:N26" si="8">I21/18.5</f>
         <v>0.2864864864864865</v>
       </c>
       <c r="N23">
-        <f>J21/18.5</f>
+        <f t="shared" si="8"/>
         <v>-0.10270270270270269</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <f>10000*M23</f>
+        <v>2864.864864864865</v>
+      </c>
+      <c r="P23">
+        <f>10000*N23</f>
+        <v>-1027.0270270270269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>-7.0270270270270274E-2</v>
       </c>
@@ -1006,15 +1167,23 @@
         <v>-1.5</v>
       </c>
       <c r="M24">
-        <f>I22/18.5</f>
+        <f t="shared" si="8"/>
         <v>0.30270270270270266</v>
       </c>
       <c r="N24">
-        <f>J22/18.5</f>
+        <f t="shared" si="8"/>
         <v>-0.16216216216216217</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <f t="shared" ref="O24:O26" si="9">10000*M24</f>
+        <v>3027.0270270270266</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P26" si="10">10000*N24</f>
+        <v>-1621.6216216216217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>-0.16216216216216217</v>
       </c>
@@ -1022,15 +1191,23 @@
         <v>-0.16216216216216217</v>
       </c>
       <c r="M25">
-        <f>I23/18.5</f>
+        <f t="shared" si="8"/>
         <v>0.3783783783783784</v>
       </c>
       <c r="N25">
-        <f>J23/18.5</f>
+        <f t="shared" si="8"/>
         <v>-0.16216216216216217</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>3783.7837837837842</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>-1621.6216216216217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>-0.16216216216216217</v>
       </c>
@@ -1038,15 +1215,23 @@
         <v>-0.10810810810810811</v>
       </c>
       <c r="M26">
-        <f>I24/18.5</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="N26">
-        <f>J24/18.5</f>
+        <f t="shared" si="8"/>
         <v>-8.1081081081081086E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="10"/>
+        <v>-810.81081081081084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>-0.44324324324324321</v>
       </c>
@@ -1059,8 +1244,14 @@
       <c r="M27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>2864.864864864865</v>
+      </c>
+      <c r="P27">
+        <v>-1027.0270270270269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>-0.97297297297297303</v>
       </c>
@@ -1086,7 +1277,7 @@
         <v>0.30588235294117649</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>-1</v>
       </c>
@@ -1100,7 +1291,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>-0.14054054054054055</v>
       </c>
@@ -1111,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>-0.12972972972972974</v>
       </c>
@@ -1125,7 +1316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>-0.11891891891891893</v>
       </c>
@@ -1138,8 +1329,16 @@
       <c r="N32">
         <v>0.23783783783783785</v>
       </c>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <f>10000*M32</f>
+        <v>-2810.8108108108108</v>
+      </c>
+      <c r="P32">
+        <f>10000*N32</f>
+        <v>2378.3783783783783</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>-0.10810810810810811</v>
       </c>
@@ -1152,8 +1351,16 @@
       <c r="N33">
         <v>0.3783783783783784</v>
       </c>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <f t="shared" ref="O33:O37" si="11">10000*M33</f>
+        <v>-2810.8108108108108</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33:P37" si="12">10000*N33</f>
+        <v>3783.7837837837842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>-5.9459459459459463E-2</v>
       </c>
@@ -1166,8 +1373,16 @@
       <c r="N34">
         <v>0.44864864864864867</v>
       </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <f t="shared" si="11"/>
+        <v>-3027.0270270270266</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="12"/>
+        <v>4486.4864864864867</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>-2.1621621621621623E-2</v>
       </c>
@@ -1180,8 +1395,16 @@
       <c r="N35">
         <v>0.44864864864864867</v>
       </c>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <f t="shared" si="11"/>
+        <v>-3783.7837837837842</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="12"/>
+        <v>4486.4864864864867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E36">
         <v>0</v>
       </c>
@@ -1194,8 +1417,16 @@
       <c r="N36">
         <v>0.3783783783783784</v>
       </c>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <f t="shared" si="11"/>
+        <v>-4000</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="12"/>
+        <v>3783.7837837837842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>1</v>
       </c>
@@ -1205,62 +1436,120 @@
       <c r="N37">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <f t="shared" si="11"/>
+        <v>-4000</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E38">
         <f>A21/255</f>
         <v>0.36078431372549019</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:G38" si="3">B21/255</f>
+        <f t="shared" ref="F38:G38" si="13">B21/255</f>
         <v>0.35686274509803922</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.38039215686274508</v>
       </c>
       <c r="M38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>-2810.8108108108108</v>
+      </c>
+      <c r="P38">
+        <v>2378.3783783783783</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>-0.2864864864864865</v>
       </c>
       <c r="N39">
         <v>-0.10270270270270269</v>
       </c>
-    </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <f>10000*M39</f>
+        <v>-2864.864864864865</v>
+      </c>
+      <c r="P39">
+        <f>10000*N39</f>
+        <v>-1027.0270270270269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M40">
         <v>-0.30270270270270266</v>
       </c>
       <c r="N40">
         <v>-0.16216216216216217</v>
       </c>
-    </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <f t="shared" ref="O40:O42" si="14">10000*M40</f>
+        <v>-3027.0270270270266</v>
+      </c>
+      <c r="P40">
+        <f t="shared" ref="P40:P42" si="15">10000*N40</f>
+        <v>-1621.6216216216217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M41">
         <v>-0.3783783783783784</v>
       </c>
       <c r="N41">
         <v>-0.16216216216216217</v>
       </c>
-    </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <f t="shared" si="14"/>
+        <v>-3783.7837837837842</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="15"/>
+        <v>-1621.6216216216217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M42">
         <v>-0.4</v>
       </c>
       <c r="N42">
         <v>-8.1081081081081086E-2</v>
       </c>
-    </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <f t="shared" si="14"/>
+        <v>-4000</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="15"/>
+        <v>-810.81081081081084</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>-2864.864864864865</v>
+      </c>
+      <c r="P43">
+        <v>-1027.0270270270269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
       <c r="M44">
         <v>0.29019607843137257</v>
       </c>
@@ -1271,12 +1560,128 @@
         <v>0.30588235294117649</v>
       </c>
     </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="C45">
+        <f>10000*A45</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>10000*B45</f>
+        <v>8108.1081081081084</v>
+      </c>
+      <c r="F45">
+        <v>0.11891891891891893</v>
+      </c>
+      <c r="G45">
+        <v>0.48648648648648651</v>
+      </c>
+      <c r="H45">
+        <f>10000*F45</f>
+        <v>1189.1891891891892</v>
+      </c>
+      <c r="I45">
+        <f>10000*G45</f>
+        <v>4864.864864864865</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2.1621621621621623E-2</v>
+      </c>
+      <c r="B46">
+        <v>0.8</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:C54" si="16">10000*A46</f>
+        <v>216.21621621621622</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:D54" si="17">10000*B46</f>
+        <v>8000</v>
+      </c>
+      <c r="F46">
+        <v>0.12972972972972974</v>
+      </c>
+      <c r="G46">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46:H49" si="18">10000*F46</f>
+        <v>1297.2972972972973</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ref="I46:I49" si="19">10000*G46</f>
+        <v>3783.7837837837842</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5.9459459459459463E-2</v>
+      </c>
+      <c r="B47">
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="16"/>
+        <v>594.59459459459458</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="17"/>
+        <v>7567.5675675675684</v>
+      </c>
+      <c r="F47">
+        <v>-0.12972972972972999</v>
+      </c>
+      <c r="G47">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="18"/>
+        <v>-1297.2972972972998</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="19"/>
+        <v>3783.7837837837842</v>
+      </c>
       <c r="M47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="B48">
+        <v>0.62702702702702706</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="16"/>
+        <v>1081.081081081081</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="17"/>
+        <v>6270.2702702702709</v>
+      </c>
+      <c r="F48">
+        <v>-0.11891891891891899</v>
+      </c>
+      <c r="G48">
+        <v>0.48648648648648651</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="18"/>
+        <v>-1189.1891891891898</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="19"/>
+        <v>4864.864864864865</v>
+      </c>
       <c r="M48">
         <f>I28/18.5</f>
         <v>0</v>
@@ -1285,8 +1690,44 @@
         <f>J28/18.5</f>
         <v>-0.97297297297297303</v>
       </c>
-    </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <f>10000*M48</f>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f>10000*N48</f>
+        <v>-9729.72972972973</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.11891891891891893</v>
+      </c>
+      <c r="B49">
+        <v>0.48648648648648651</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="16"/>
+        <v>1189.1891891891892</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="17"/>
+        <v>4864.864864864865</v>
+      </c>
+      <c r="F49">
+        <v>0.11891891891891893</v>
+      </c>
+      <c r="G49">
+        <v>0.48648648648648651</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="18"/>
+        <v>1189.1891891891892</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="19"/>
+        <v>4864.864864864865</v>
+      </c>
       <c r="M49">
         <f>I29/18.5</f>
         <v>0</v>
@@ -1295,15 +1736,668 @@
         <f>J29/18.5</f>
         <v>-0.64864864864864868</v>
       </c>
-    </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <f>10000*M49</f>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f>10000*N49</f>
+        <v>-6486.4864864864867</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-0.11891891891891899</v>
+      </c>
+      <c r="B50">
+        <v>0.48648648648648651</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="16"/>
+        <v>-1189.1891891891898</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="17"/>
+        <v>4864.864864864865</v>
+      </c>
       <c r="M50" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-0.108108108108108</v>
+      </c>
+      <c r="B51">
+        <v>0.62702702702702706</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="16"/>
+        <v>-1081.0810810810801</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="17"/>
+        <v>6270.2702702702709</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
       <c r="M51" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-5.9459459459459497E-2</v>
+      </c>
+      <c r="B52">
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="16"/>
+        <v>-594.59459459459492</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="17"/>
+        <v>7567.5675675675684</v>
+      </c>
+      <c r="F52">
+        <v>0.12972972972972974</v>
+      </c>
+      <c r="G52">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="H52">
+        <f>10000*F52</f>
+        <v>1297.2972972972973</v>
+      </c>
+      <c r="I52">
+        <f>10000*G52</f>
+        <v>3783.7837837837842</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-2.1621621621621599E-2</v>
+      </c>
+      <c r="B53">
+        <v>0.8</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="16"/>
+        <v>-216.216216216216</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="17"/>
+        <v>8000</v>
+      </c>
+      <c r="F53">
+        <v>0.14054054054054055</v>
+      </c>
+      <c r="G53">
+        <v>0.29729729729729731</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ref="H53:H56" si="20">10000*F53</f>
+        <v>1405.4054054054054</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ref="I53:I56" si="21">10000*G53</f>
+        <v>2972.9729729729729</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="17"/>
+        <v>8108.1081081081084</v>
+      </c>
+      <c r="F54">
+        <v>-0.14054054054054099</v>
+      </c>
+      <c r="G54">
+        <v>0.29729729729729731</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="20"/>
+        <v>-1405.40540540541</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="21"/>
+        <v>2972.9729729729729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>-0.12972972972972999</v>
+      </c>
+      <c r="G55">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="20"/>
+        <v>-1297.2972972972998</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="21"/>
+        <v>3783.7837837837842</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+      <c r="P55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>0.12972972972972974</v>
+      </c>
+      <c r="G56">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="20"/>
+        <v>1297.2972972972973</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="21"/>
+        <v>3783.7837837837842</v>
+      </c>
+      <c r="K56">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="L56">
+        <v>-0.10810810810810811</v>
+      </c>
+      <c r="M56">
+        <f>10000*K56</f>
+        <v>1621.6216216216217</v>
+      </c>
+      <c r="N56">
+        <f>10000*L56</f>
+        <v>-1081.081081081081</v>
+      </c>
+      <c r="P56">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="Q56">
+        <v>-0.16216216216216217</v>
+      </c>
+      <c r="R56">
+        <f>10000*P56</f>
+        <v>1621.6216216216217</v>
+      </c>
+      <c r="S56">
+        <f>10000*Q56</f>
+        <v>-1621.6216216216217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="L57">
+        <v>-0.16216216216216217</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ref="M57:M60" si="22">10000*K57</f>
+        <v>1621.6216216216217</v>
+      </c>
+      <c r="N57">
+        <f t="shared" ref="N57:N60" si="23">10000*L57</f>
+        <v>-1621.6216216216217</v>
+      </c>
+      <c r="P57">
+        <v>7.0270270270270274E-2</v>
+      </c>
+      <c r="Q57">
+        <v>-0.64864864864864868</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ref="R57:R60" si="24">10000*P57</f>
+        <v>702.70270270270271</v>
+      </c>
+      <c r="S57">
+        <f t="shared" ref="S57:S60" si="25">10000*Q57</f>
+        <v>-6486.4864864864867</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58">
+        <v>-0.162162162162162</v>
+      </c>
+      <c r="L58">
+        <v>-0.16216216216216217</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="22"/>
+        <v>-1621.6216216216201</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="23"/>
+        <v>-1621.6216216216217</v>
+      </c>
+      <c r="P58">
+        <v>-7.0270270270270302E-2</v>
+      </c>
+      <c r="Q58">
+        <v>-0.64864864864864868</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="24"/>
+        <v>-702.70270270270305</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="25"/>
+        <v>-6486.4864864864867</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0.29729729729729731</v>
+      </c>
+      <c r="C59">
+        <f>10000*A59</f>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f>10000*B59</f>
+        <v>2972.9729729729729</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0.29729729729729731</v>
+      </c>
+      <c r="H59">
+        <f>10000*F59</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>10000*G59</f>
+        <v>2972.9729729729729</v>
+      </c>
+      <c r="K59">
+        <v>-0.162162162162162</v>
+      </c>
+      <c r="L59">
+        <v>-0.10810810810810811</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="22"/>
+        <v>-1621.6216216216201</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="23"/>
+        <v>-1081.081081081081</v>
+      </c>
+      <c r="P59">
+        <v>-0.162162162162162</v>
+      </c>
+      <c r="Q59">
+        <v>-0.16216216216216217</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="24"/>
+        <v>-1621.6216216216201</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="25"/>
+        <v>-1621.6216216216217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.14054054054054055</v>
+      </c>
+      <c r="B60">
+        <v>0.29729729729729731</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:C64" si="26">10000*A60</f>
+        <v>1405.4054054054054</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60:D64" si="27">10000*B60</f>
+        <v>2972.9729729729729</v>
+      </c>
+      <c r="F60">
+        <v>0.44324324324324321</v>
+      </c>
+      <c r="G60">
+        <v>-7.0270270270270274E-2</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ref="H60:H63" si="28">10000*F60</f>
+        <v>4432.4324324324325</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:I63" si="29">10000*G60</f>
+        <v>-702.70270270270271</v>
+      </c>
+      <c r="K60">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="L60">
+        <v>-0.10810810810810811</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="22"/>
+        <v>1621.6216216216217</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="23"/>
+        <v>-1081.081081081081</v>
+      </c>
+      <c r="P60">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="Q60">
+        <v>-0.16216216216216217</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="24"/>
+        <v>1621.6216216216217</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="25"/>
+        <v>-1621.6216216216217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="26"/>
+        <v>10000</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="G61">
+        <v>-0.10810810810810811</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="28"/>
+        <v>1621.6216216216217</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="29"/>
+        <v>-1081.081081081081</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="B62">
+        <v>-0.13513513513513514</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="26"/>
+        <v>9729.72972972973</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="27"/>
+        <v>-1351.3513513513515</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>-0.10810810810810811</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="29"/>
+        <v>-1081.081081081081</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.44324324324324321</v>
+      </c>
+      <c r="B63">
+        <v>-7.0270270270270274E-2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="26"/>
+        <v>4432.4324324324325</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="27"/>
+        <v>-702.70270270270271</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0.29729729729729731</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="29"/>
+        <v>2972.9729729729729</v>
+      </c>
+      <c r="K63" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0.29729729729729698</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="27"/>
+        <v>2972.9729729729697</v>
+      </c>
+      <c r="K64">
+        <v>7.0270270270270274E-2</v>
+      </c>
+      <c r="L64">
+        <v>-0.64864864864864868</v>
+      </c>
+      <c r="M64">
+        <f>10000*K64</f>
+        <v>702.70270270270271</v>
+      </c>
+      <c r="N64">
+        <f>10000*L64</f>
+        <v>-6486.4864864864867</v>
+      </c>
+      <c r="P64">
+        <v>7.0270270270270274E-2</v>
+      </c>
+      <c r="Q64">
+        <v>-0.64864864864864868</v>
+      </c>
+      <c r="R64">
+        <f>10000*P64</f>
+        <v>702.70270270270271</v>
+      </c>
+      <c r="S64">
+        <f>10000*Q64</f>
+        <v>-6486.4864864864867</v>
+      </c>
+    </row>
+    <row r="65" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>0.31891891891891894</v>
+      </c>
+      <c r="L65">
+        <v>-0.7567567567567568</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ref="M65:M68" si="30">10000*K65</f>
+        <v>3189.1891891891892</v>
+      </c>
+      <c r="N65">
+        <f t="shared" ref="N65:N68" si="31">10000*L65</f>
+        <v>-7567.5675675675684</v>
+      </c>
+      <c r="P65">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="Q65">
+        <v>-0.86486486486486491</v>
+      </c>
+      <c r="R65">
+        <f t="shared" ref="R65:R69" si="32">10000*P65</f>
+        <v>540.54054054054052</v>
+      </c>
+      <c r="S65">
+        <f t="shared" ref="S65:S69" si="33">10000*Q65</f>
+        <v>-8648.6486486486483</v>
+      </c>
+    </row>
+    <row r="66" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>0.33513513513513515</v>
+      </c>
+      <c r="L66">
+        <v>-0.86486486486486491</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="30"/>
+        <v>3351.3513513513517</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="31"/>
+        <v>-8648.6486486486483</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>-0.97297297297297303</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="33"/>
+        <v>-9729.72972972973</v>
+      </c>
+    </row>
+    <row r="67" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="L67">
+        <v>-0.89189189189189189</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="30"/>
+        <v>810.81081081081084</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="31"/>
+        <v>-8918.9189189189183</v>
+      </c>
+      <c r="P67">
+        <v>-5.4054054054054057E-2</v>
+      </c>
+      <c r="Q67">
+        <v>-0.86486486486486491</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="32"/>
+        <v>-540.54054054054052</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="33"/>
+        <v>-8648.6486486486483</v>
+      </c>
+    </row>
+    <row r="68" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>7.0270270270270274E-2</v>
+      </c>
+      <c r="L68">
+        <v>-0.64864864864864868</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="30"/>
+        <v>702.70270270270271</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="31"/>
+        <v>-6486.4864864864867</v>
+      </c>
+      <c r="P68">
+        <v>-7.0270270270270302E-2</v>
+      </c>
+      <c r="Q68">
+        <v>-0.64864864864864868</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="32"/>
+        <v>-702.70270270270305</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="33"/>
+        <v>-6486.4864864864867</v>
+      </c>
+    </row>
+    <row r="69" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>7.0270270270270274E-2</v>
+      </c>
+      <c r="Q69">
+        <v>-0.64864864864864868</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="32"/>
+        <v>702.70270270270271</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="33"/>
+        <v>-6486.4864864864867</v>
       </c>
     </row>
   </sheetData>

--- a/me262.xlsx
+++ b/me262.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CEFET\8o Periodo\Computacao Grafica\CG-Tp1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Visual Studio 2013\Projects\CG-Tp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -133,9 +133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,7 +173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -245,7 +245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54:K65"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,11 +814,11 @@
         <v>7</v>
       </c>
       <c r="M16">
-        <f>I12/18.5</f>
+        <f t="shared" ref="M16:N21" si="3">I12/18.5</f>
         <v>0.2810810810810811</v>
       </c>
       <c r="N16">
-        <f>J12/18.5</f>
+        <f t="shared" si="3"/>
         <v>0.23783783783783785</v>
       </c>
     </row>
@@ -844,11 +844,11 @@
         <v>3.7</v>
       </c>
       <c r="M17">
-        <f>I13/18.5</f>
+        <f t="shared" si="3"/>
         <v>0.2810810810810811</v>
       </c>
       <c r="N17">
-        <f>J13/18.5</f>
+        <f t="shared" si="3"/>
         <v>0.3783783783783784</v>
       </c>
     </row>
@@ -871,11 +871,11 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <f>I14/18.5</f>
+        <f t="shared" si="3"/>
         <v>0.30270270270270266</v>
       </c>
       <c r="N18">
-        <f>J14/18.5</f>
+        <f t="shared" si="3"/>
         <v>0.44864864864864867</v>
       </c>
     </row>
@@ -904,11 +904,11 @@
         <v>78</v>
       </c>
       <c r="M19">
-        <f>I15/18.5</f>
+        <f t="shared" si="3"/>
         <v>0.3783783783783784</v>
       </c>
       <c r="N19">
-        <f>J15/18.5</f>
+        <f t="shared" si="3"/>
         <v>0.44864864864864867</v>
       </c>
     </row>
@@ -926,11 +926,11 @@
         <v>6</v>
       </c>
       <c r="M20">
-        <f>I16/18.5</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="N20">
-        <f>J16/18.5</f>
+        <f t="shared" si="3"/>
         <v>0.3783783783783784</v>
       </c>
     </row>
@@ -957,11 +957,11 @@
         <v>-1.9</v>
       </c>
       <c r="M21">
-        <f>I17/18.5</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="N21">
-        <f>J17/18.5</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
@@ -996,11 +996,11 @@
         <v>-3</v>
       </c>
       <c r="M23">
-        <f>I21/18.5</f>
+        <f t="shared" ref="M23:N26" si="4">I21/18.5</f>
         <v>0.2864864864864865</v>
       </c>
       <c r="N23">
-        <f>J21/18.5</f>
+        <f t="shared" si="4"/>
         <v>-0.10270270270270269</v>
       </c>
     </row>
@@ -1018,11 +1018,11 @@
         <v>-1.5</v>
       </c>
       <c r="M24">
-        <f>I22/18.5</f>
+        <f t="shared" si="4"/>
         <v>0.30270270270270266</v>
       </c>
       <c r="N24">
-        <f>J22/18.5</f>
+        <f t="shared" si="4"/>
         <v>-0.16216216216216217</v>
       </c>
     </row>
@@ -1034,11 +1034,11 @@
         <v>-0.16216216216216217</v>
       </c>
       <c r="M25">
-        <f>I23/18.5</f>
+        <f t="shared" si="4"/>
         <v>0.3783783783783784</v>
       </c>
       <c r="N25">
-        <f>J23/18.5</f>
+        <f t="shared" si="4"/>
         <v>-0.16216216216216217</v>
       </c>
     </row>
@@ -1050,11 +1050,11 @@
         <v>-0.10810810810810811</v>
       </c>
       <c r="M26">
-        <f>I24/18.5</f>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="N26">
-        <f>J24/18.5</f>
+        <f t="shared" si="4"/>
         <v>-8.1081081081081086E-2</v>
       </c>
     </row>
@@ -1251,11 +1251,11 @@
         <v>0.36078431372549019</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:G38" si="3">B21/255</f>
+        <f t="shared" ref="F38:G38" si="5">B21/255</f>
         <v>0.35686274509803922</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38039215686274508</v>
       </c>
       <c r="I38">
@@ -1431,203 +1431,203 @@
     </row>
     <row r="55" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J55">
-        <f t="shared" ref="J55:J65" si="4">-I35/18.5</f>
+        <f t="shared" ref="J55:J65" si="6">-I35/18.5</f>
         <v>-0.25945945945945947</v>
       </c>
       <c r="K55">
-        <f t="shared" ref="K55:K65" si="5">J35/18.5</f>
+        <f t="shared" ref="K55:K65" si="7">J35/18.5</f>
         <v>9.7297297297297303E-2</v>
       </c>
       <c r="M55">
-        <f t="shared" ref="M55:N55" si="6">I35/18.5</f>
+        <f t="shared" ref="M55:N55" si="8">I35/18.5</f>
         <v>0.25945945945945947</v>
       </c>
       <c r="N55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.7297297297297303E-2</v>
       </c>
     </row>
     <row r="56" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.25945945945945947</v>
       </c>
       <c r="K56">
-        <f t="shared" si="5"/>
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="M56">
-        <f t="shared" ref="M56:N56" si="7">I36/18.5</f>
-        <v>0.25945945945945947</v>
-      </c>
-      <c r="N56">
         <f t="shared" si="7"/>
         <v>0.16216216216216217</v>
       </c>
+      <c r="M56">
+        <f t="shared" ref="M56:N56" si="9">I36/18.5</f>
+        <v>0.25945945945945947</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="9"/>
+        <v>0.16216216216216217</v>
+      </c>
     </row>
     <row r="57" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.22702702702702704</v>
       </c>
       <c r="K57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16216216216216217</v>
       </c>
       <c r="M57">
-        <f t="shared" ref="M57:N57" si="8">I37/18.5</f>
+        <f t="shared" ref="M57:N57" si="10">I37/18.5</f>
         <v>0.22702702702702704</v>
       </c>
       <c r="N57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16216216216216217</v>
       </c>
     </row>
     <row r="58" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.22702702702702704</v>
       </c>
       <c r="K58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.7297297297297303E-2</v>
       </c>
       <c r="M58">
-        <f t="shared" ref="M58:N58" si="9">I38/18.5</f>
+        <f t="shared" ref="M58:N58" si="11">I38/18.5</f>
         <v>0.22702702702702704</v>
       </c>
       <c r="N58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.7297297297297303E-2</v>
       </c>
     </row>
     <row r="59" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.16216216216216217</v>
       </c>
       <c r="K59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.7297297297297303E-2</v>
       </c>
       <c r="M59">
-        <f t="shared" ref="M59:N59" si="10">I39/18.5</f>
+        <f t="shared" ref="M59:N59" si="12">I39/18.5</f>
         <v>0.16216216216216217</v>
       </c>
       <c r="N59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.7297297297297303E-2</v>
       </c>
     </row>
     <row r="60" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.16216216216216217</v>
       </c>
       <c r="K60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.4864864864864868E-2</v>
       </c>
       <c r="M60">
-        <f t="shared" ref="M60:N60" si="11">I40/18.5</f>
+        <f t="shared" ref="M60:N60" si="13">I40/18.5</f>
         <v>0.16216216216216217</v>
       </c>
       <c r="N60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.4864864864864868E-2</v>
       </c>
     </row>
     <row r="61" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.22702702702702704</v>
       </c>
       <c r="K61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.4864864864864868E-2</v>
       </c>
       <c r="M61">
-        <f t="shared" ref="M61:N61" si="12">I41/18.5</f>
+        <f t="shared" ref="M61:N61" si="14">I41/18.5</f>
         <v>0.22702702702702704</v>
       </c>
       <c r="N61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.4864864864864868E-2</v>
       </c>
     </row>
     <row r="62" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.22702702702702704</v>
       </c>
       <c r="K62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" ref="M62:N62" si="13">I42/18.5</f>
+        <f t="shared" ref="M62:N62" si="15">I42/18.5</f>
         <v>0.22702702702702704</v>
       </c>
       <c r="N62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.25945945945945947</v>
       </c>
       <c r="K63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="shared" ref="M63:N63" si="14">I43/18.5</f>
+        <f t="shared" ref="M63:N63" si="16">I43/18.5</f>
         <v>0.25945945945945947</v>
       </c>
       <c r="N63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.25945945945945947</v>
       </c>
       <c r="K64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.4864864864864868E-2</v>
       </c>
       <c r="M64">
-        <f t="shared" ref="M64:N64" si="15">I44/18.5</f>
+        <f t="shared" ref="M64:N64" si="17">I44/18.5</f>
         <v>0.25945945945945947</v>
       </c>
       <c r="N64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.4864864864864868E-2</v>
       </c>
     </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.32432432432432434</v>
       </c>
       <c r="K65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.4864864864864868E-2</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:N65" si="16">I45/18.5</f>
+        <f t="shared" ref="M65:N65" si="18">I45/18.5</f>
         <v>0.32432432432432434</v>
       </c>
       <c r="N65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.4864864864864868E-2</v>
       </c>
     </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J66" t="s">
         <v>1</v>
       </c>
@@ -1635,12 +1635,374 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J67" t="s">
         <v>12</v>
       </c>
       <c r="M67" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>-0.32432432432432434</v>
+      </c>
+      <c r="C69">
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="E69">
+        <v>-0.32432432432432434</v>
+      </c>
+      <c r="F69">
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="G69">
+        <f>10000*E69</f>
+        <v>-3243.2432432432433</v>
+      </c>
+      <c r="H69">
+        <f>10000*F69</f>
+        <v>972.97297297297303</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="C70">
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="E70">
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="F70">
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ref="G70:G77" si="19">10000*E70</f>
+        <v>-2594.5945945945946</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ref="H70:H77" si="20">10000*F70</f>
+        <v>972.97297297297303</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="C71">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="E71">
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="F71">
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="19"/>
+        <v>-2270.2702702702704</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="20"/>
+        <v>972.97297297297303</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="C72">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="E72">
+        <v>-0.16216216216216217</v>
+      </c>
+      <c r="F72">
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="19"/>
+        <v>-1621.6216216216217</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="20"/>
+        <v>972.97297297297303</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="C73">
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="E73">
+        <v>-0.16216216216216217</v>
+      </c>
+      <c r="F73">
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="19"/>
+        <v>-1621.6216216216217</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="20"/>
+        <v>648.64864864864865</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>-0.16216216216216217</v>
+      </c>
+      <c r="C74">
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="E74">
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="F74">
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="19"/>
+        <v>-2270.2702702702704</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="20"/>
+        <v>648.64864864864865</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>-0.16216216216216217</v>
+      </c>
+      <c r="C75">
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="E75">
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="F75">
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="19"/>
+        <v>-2594.5945945945946</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="20"/>
+        <v>648.64864864864865</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="C76">
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="E76">
+        <v>-0.32432432432432434</v>
+      </c>
+      <c r="F76">
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="19"/>
+        <v>-3243.2432432432433</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="20"/>
+        <v>648.64864864864865</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>-0.32432432432432434</v>
+      </c>
+      <c r="F77">
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="19"/>
+        <v>-3243.2432432432433</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="20"/>
+        <v>972.97297297297303</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="C79">
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="E79">
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="F79">
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="G79">
+        <f>10000*E79</f>
+        <v>-2594.5945945945946</v>
+      </c>
+      <c r="H79">
+        <f>10000*F79</f>
+        <v>972.97297297297303</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>-0.32432432432432434</v>
+      </c>
+      <c r="C80">
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="E80">
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="F80">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ref="G80:G87" si="21">10000*E80</f>
+        <v>-2594.5945945945946</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ref="H80:H87" si="22">10000*F80</f>
+        <v>1621.6216216216217</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="F81">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="21"/>
+        <v>-2270.2702702702704</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="22"/>
+        <v>1621.6216216216217</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="F82">
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="21"/>
+        <v>-2270.2702702702704</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="22"/>
+        <v>972.97297297297303</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="F83">
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="21"/>
+        <v>-2270.2702702702704</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="22"/>
+        <v>648.64864864864865</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>-0.22702702702702704</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="21"/>
+        <v>-2270.2702702702704</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="21"/>
+        <v>-2594.5945945945946</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="F86">
+        <v>6.4864864864864868E-2</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="21"/>
+        <v>-2594.5945945945946</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="22"/>
+        <v>648.64864864864865</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>-0.25945945945945947</v>
+      </c>
+      <c r="F87">
+        <v>9.7297297297297303E-2</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="21"/>
+        <v>-2594.5945945945946</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="22"/>
+        <v>972.97297297297303</v>
       </c>
     </row>
   </sheetData>
